--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1824,7 +1824,7 @@
         <v>2100000</v>
       </c>
       <c r="G19" s="36">
-        <f t="shared" ref="G19:G24" si="3">F19/A$19</f>
+        <f t="shared" ref="G19:G25" si="3">F19/A$19</f>
         <v>0.1</v>
       </c>
       <c r="H19" s="99">
@@ -2004,14 +2004,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="10">
+        <v>43714</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43719</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43725</v>
+      </c>
+      <c r="E25" s="95">
+        <v>1249024</v>
+      </c>
+      <c r="F25" s="95">
+        <v>1312507</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="3"/>
+        <v>6.2500333333333338E-2</v>
+      </c>
+      <c r="H25" s="99">
+        <f t="shared" ref="H25" si="5">H24-F25</f>
+        <v>4357123</v>
+      </c>
+      <c r="I25" s="79">
+        <f t="shared" ref="I25" si="6">I24-G25</f>
+        <v>0.2074820476190477</v>
+      </c>
       <c r="J25" s="66"/>
       <c r="K25" s="66"/>
       <c r="L25" s="1"/>
@@ -2081,23 +2100,23 @@
       <c r="D30" s="19"/>
       <c r="E30" s="54">
         <f>SUM(E19:E29)</f>
-        <v>11941970</v>
+        <v>13190994</v>
       </c>
       <c r="F30" s="53">
         <f>SUM(F19:F29)</f>
-        <v>15330370</v>
+        <v>16642877</v>
       </c>
       <c r="G30" s="23">
         <f>SUM(G19:G29)</f>
-        <v>0.73001761904761897</v>
+        <v>0.79251795238095235</v>
       </c>
       <c r="H30" s="20">
         <f>A19-F30</f>
-        <v>5669630</v>
+        <v>4357123</v>
       </c>
       <c r="I30" s="28">
         <f>1-G30</f>
-        <v>0.26998238095238103</v>
+        <v>0.20748204761904765</v>
       </c>
       <c r="J30" s="68"/>
       <c r="K30" s="68"/>
@@ -2150,16 +2169,16 @@
     <row r="36" spans="1:12">
       <c r="A36" s="111">
         <f>A19-F30</f>
-        <v>5669630</v>
+        <v>4357123</v>
       </c>
       <c r="B36" s="112"/>
       <c r="C36" s="72">
         <f>1-G30</f>
-        <v>0.26998238095238103</v>
+        <v>0.20748204761904765</v>
       </c>
       <c r="D36" s="21">
         <f>(C36/0.8)*100</f>
-        <v>33.747797619047624</v>
+        <v>25.935255952380952</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -146,9 +146,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
     <t>T.O/82 FD 130</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Формокомплект банки 0,45 л тип III-2-82-450-1 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -1004,23 +1004,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,6 +1014,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1340,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="E36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1361,29 +1359,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="A1" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="A2" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1563,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9">
         <v>120</v>
@@ -2122,7 +2120,7 @@
       <c r="K30" s="68"/>
       <c r="L30" s="68"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2134,13 +2132,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="103" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A34" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2148,11 +2146,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="113" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2166,12 +2164,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="111">
+    <row r="36" spans="1:11">
+      <c r="A36" s="105">
         <f>A19-F30</f>
         <v>4357123</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="72">
         <f>1-G30</f>
         <v>0.20748204761904765</v>
@@ -2180,18 +2178,16 @@
         <f>(C36/0.8)*100</f>
         <v>25.935255952380952</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="E36" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2199,7 +2195,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2214,7 +2210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6">
+    <row r="39" spans="1:11" ht="15.6">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2226,7 +2222,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -2235,10 +2231,10 @@
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="56"/>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
@@ -2248,7 +2244,7 @@
       <c r="G41" s="58"/>
       <c r="H41" s="57"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:11">
       <c r="A42" s="56"/>
       <c r="B42" s="57"/>
       <c r="C42" s="57"/>
@@ -2258,7 +2254,7 @@
       <c r="G42" s="58"/>
       <c r="H42" s="57"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="56"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
@@ -2268,7 +2264,7 @@
       <c r="G43" s="58"/>
       <c r="H43" s="57"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="56"/>
       <c r="B44" s="57"/>
       <c r="C44" s="57"/>
@@ -2278,7 +2274,7 @@
       <c r="G44" s="58"/>
       <c r="H44" s="57"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="56"/>
       <c r="B45" s="57"/>
       <c r="C45" s="57"/>
@@ -2288,7 +2284,7 @@
       <c r="G45" s="58"/>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="56"/>
       <c r="B46" s="57"/>
       <c r="C46" s="59"/>
@@ -2298,7 +2294,7 @@
       <c r="G46" s="59"/>
       <c r="H46" s="59"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="56"/>
       <c r="B47" s="57"/>
       <c r="C47" s="57"/>
@@ -2308,7 +2304,7 @@
       <c r="G47" s="58"/>
       <c r="H47" s="57"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="56"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -2330,9 +2326,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="61"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2349,8 +2345,8 @@
       <c r="F51" s="55"/>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="104"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="56"/>
@@ -2361,8 +2357,8 @@
       <c r="F52" s="58"/>
       <c r="G52" s="58"/>
       <c r="H52" s="57"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="56"/>
@@ -2373,8 +2369,8 @@
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2387,18 +2383,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2406,12 +2407,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -802,9 +805,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,6 +1005,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,20 +1028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="E36:J36"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1359,34 +1359,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1397,84 +1397,84 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>237</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>30</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>30</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="44">
+      <c r="F5" s="73"/>
+      <c r="G5" s="43">
         <f>E5-F5</f>
         <v>30</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="69"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="84">
         <v>237</v>
       </c>
       <c r="D6" s="9">
@@ -1483,26 +1483,26 @@
       <c r="E6" s="9">
         <v>30</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>30</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="70"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="84">
         <v>237</v>
       </c>
       <c r="D7" s="9">
@@ -1511,28 +1511,28 @@
       <c r="E7" s="9">
         <v>40</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="74">
         <v>2</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="70"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="84">
         <v>237</v>
       </c>
       <c r="D8" s="9">
@@ -1541,26 +1541,26 @@
       <c r="E8" s="9">
         <v>40</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="70"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9">
@@ -1569,28 +1569,28 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="74">
         <v>30</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>90</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="84">
         <v>237</v>
       </c>
       <c r="D10" s="9">
@@ -1599,49 +1599,49 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="70"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="75"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="84">
         <v>237</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1650,24 +1650,24 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="49"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <v>237</v>
       </c>
       <c r="D13" s="9">
@@ -1676,30 +1676,30 @@
       <c r="E13" s="9">
         <v>50</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="74">
         <v>12</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <v>237</v>
       </c>
       <c r="D14" s="9">
@@ -1708,51 +1708,51 @@
       <c r="E14" s="9">
         <v>200</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="74">
         <v>70</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="88">
+      <c r="A15" s="87">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="85">
         <v>237</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <v>50</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>50</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="46">
+      <c r="F15" s="76"/>
+      <c r="G15" s="45">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="84"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="89"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="13"/>
@@ -1773,96 +1773,96 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="71">
+      <c r="A19" s="70">
         <f>E5*700000</f>
         <v>21000000</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93">
+      <c r="B19" s="34"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92">
         <v>2100000</v>
       </c>
-      <c r="G19" s="36">
-        <f t="shared" ref="G19:G25" si="3">F19/A$19</f>
+      <c r="G19" s="35">
+        <f t="shared" ref="G19:G26" si="3">F19/A$19</f>
         <v>0.1</v>
       </c>
-      <c r="H19" s="99">
+      <c r="H19" s="98">
         <f>A19-F19</f>
         <v>18900000</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="78">
         <f>1-G19</f>
         <v>0.9</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="80">
+      <c r="A20" s="44"/>
+      <c r="B20" s="79">
         <v>43508</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="79">
         <v>43517</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="79">
         <v>43518</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="93">
         <v>1534720</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="93">
         <v>1865645</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <f t="shared" si="3"/>
         <v>8.8840238095238097E-2</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="98">
         <f t="shared" ref="H20:I24" si="4">H19-F20</f>
         <v>17034355</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="78">
         <f t="shared" si="4"/>
         <v>0.81115976190476191</v>
       </c>
@@ -1881,27 +1881,27 @@
       <c r="D21" s="10">
         <v>43553</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="94">
         <v>1754368</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="94">
         <v>1947507</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <f t="shared" si="3"/>
         <v>9.2738428571428569E-2</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="98">
         <f t="shared" si="4"/>
         <v>15086848</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="78">
         <f t="shared" si="4"/>
         <v>0.71842133333333336</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="14"/>
@@ -1914,26 +1914,26 @@
       <c r="D22" s="10">
         <v>43614</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="95">
         <v>2524928</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="95">
         <v>2687575</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <f t="shared" si="3"/>
         <v>0.1279797619047619</v>
       </c>
-      <c r="H22" s="99">
+      <c r="H22" s="98">
         <f t="shared" si="4"/>
         <v>12399273</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="78">
         <f t="shared" si="4"/>
         <v>0.59044157142857145</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -1947,26 +1947,26 @@
       <c r="D23" s="10">
         <v>43646</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="94">
         <v>3481472</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="94">
         <v>3897964</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="3"/>
         <v>0.18561733333333333</v>
       </c>
-      <c r="H23" s="99">
+      <c r="H23" s="98">
         <f t="shared" si="4"/>
         <v>8501309</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="78">
         <f t="shared" si="4"/>
         <v>0.40482423809523815</v>
       </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1978,26 +1978,26 @@
         <v>43660</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="95">
+      <c r="E24" s="94">
         <v>2646482</v>
       </c>
-      <c r="F24" s="95">
+      <c r="F24" s="94">
         <v>2831679</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="3"/>
         <v>0.13484185714285715</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="98">
         <f t="shared" si="4"/>
         <v>5669630</v>
       </c>
-      <c r="I24" s="79">
+      <c r="I24" s="78">
         <f t="shared" si="4"/>
         <v>0.26998238095238103</v>
       </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -2011,80 +2011,99 @@
       <c r="D25" s="10">
         <v>43725</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E25" s="94">
         <v>1249024</v>
       </c>
-      <c r="F25" s="95">
+      <c r="F25" s="94">
         <v>1312507</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="3"/>
         <v>6.2500333333333338E-2</v>
       </c>
-      <c r="H25" s="99">
+      <c r="H25" s="98">
         <f t="shared" ref="H25" si="5">H24-F25</f>
         <v>4357123</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="78">
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.2074820476190477</v>
       </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
+      <c r="B26" s="10">
+        <v>43819</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="10">
+        <v>44168</v>
+      </c>
+      <c r="E26" s="94">
+        <v>2510256</v>
+      </c>
+      <c r="F26" s="94">
+        <v>2637675</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="3"/>
+        <v>0.12560357142857143</v>
+      </c>
+      <c r="H26" s="98">
+        <f t="shared" ref="H26" si="7">H25-F26</f>
+        <v>1719448</v>
+      </c>
+      <c r="I26" s="78">
+        <f t="shared" ref="I26" si="8">I25-G26</f>
+        <v>8.1878476190476279E-2</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="95"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="95"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="92"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2096,29 +2115,29 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="54">
+      <c r="E30" s="53">
         <f>SUM(E19:E29)</f>
-        <v>13190994</v>
-      </c>
-      <c r="F30" s="53">
+        <v>15701250</v>
+      </c>
+      <c r="F30" s="52">
         <f>SUM(F19:F29)</f>
-        <v>16642877</v>
+        <v>19280552</v>
       </c>
       <c r="G30" s="23">
         <f>SUM(G19:G29)</f>
-        <v>0.79251795238095235</v>
+        <v>0.91812152380952372</v>
       </c>
       <c r="H30" s="20">
         <f>A19-F30</f>
-        <v>4357123</v>
-      </c>
-      <c r="I30" s="28">
+        <v>1719448</v>
+      </c>
+      <c r="I30" s="27">
         <f>1-G30</f>
-        <v>0.20748204761904765</v>
-      </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
+        <v>8.1878476190476279E-2</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2133,12 +2152,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2147,10 +2166,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="107"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2165,27 +2184,27 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="105">
+      <c r="A36" s="110">
         <f>A19-F30</f>
-        <v>4357123</v>
-      </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="72">
+        <v>1719448</v>
+      </c>
+      <c r="B36" s="111"/>
+      <c r="C36" s="71">
         <f>1-G30</f>
-        <v>0.20748204761904765</v>
+        <v>8.1878476190476279E-2</v>
       </c>
       <c r="D36" s="21">
         <f>(C36/0.8)*100</f>
-        <v>25.935255952380952</v>
-      </c>
-      <c r="E36" s="102" t="s">
+        <v>10.234809523809535</v>
+      </c>
+      <c r="E36" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2223,113 +2242,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="57"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="56"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="57"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="56"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="57"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="57"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="57"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="57"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="56"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="61"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2337,40 +2356,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2383,23 +2402,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="103"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="103"/>
-      <c r="C66" s="104"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2407,6 +2421,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -1005,20 +1005,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1014,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1359,29 +1359,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1677,11 +1677,11 @@
         <v>50</v>
       </c>
       <c r="F13" s="74">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>29</v>
@@ -1709,11 +1709,11 @@
         <v>200</v>
       </c>
       <c r="F14" s="74">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="48"/>
@@ -2152,12 +2152,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2166,10 +2166,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="112"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2184,11 +2184,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110">
+      <c r="A36" s="104">
         <f>A19-F30</f>
         <v>1719448</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="71">
         <f>1-G30</f>
         <v>8.1878476190476279E-2</v>
@@ -2250,8 +2250,8 @@
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="55"/>
@@ -2345,9 +2345,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="60"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2364,8 +2364,8 @@
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="55"/>
@@ -2376,8 +2376,8 @@
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2388,8 +2388,8 @@
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="104"/>
-      <c r="J53" s="104"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2402,18 +2402,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2421,11 +2426,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>№Поз</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 250 гр.)</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1005,6 +1008,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,20 +1043,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1353,35 +1368,35 @@
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1805,7 +1820,9 @@
       <c r="I18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="64"/>
+      <c r="J18" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="K18" s="64"/>
       <c r="L18" s="64"/>
     </row>
@@ -1822,7 +1839,7 @@
         <v>2100000</v>
       </c>
       <c r="G19" s="35">
-        <f t="shared" ref="G19:G26" si="3">F19/A$19</f>
+        <f t="shared" ref="G19:G27" si="3">F19/A$19</f>
         <v>0.1</v>
       </c>
       <c r="H19" s="98">
@@ -1833,7 +1850,7 @@
         <f>1-G19</f>
         <v>0.9</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="102"/>
       <c r="K19" s="58"/>
       <c r="L19" s="58"/>
     </row>
@@ -1866,7 +1883,9 @@
         <f t="shared" si="4"/>
         <v>0.81115976190476191</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="102">
+        <v>257</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -1899,7 +1918,7 @@
         <f t="shared" si="4"/>
         <v>0.71842133333333336</v>
       </c>
-      <c r="J21" s="65"/>
+      <c r="J21" s="102"/>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
     </row>
@@ -1932,7 +1951,7 @@
         <f t="shared" si="4"/>
         <v>0.59044157142857145</v>
       </c>
-      <c r="J22" s="65"/>
+      <c r="J22" s="102"/>
       <c r="K22" s="65"/>
       <c r="L22" s="1"/>
     </row>
@@ -1965,7 +1984,9 @@
         <f t="shared" si="4"/>
         <v>0.40482423809523815</v>
       </c>
-      <c r="J23" s="65"/>
+      <c r="J23" s="102">
+        <v>262</v>
+      </c>
       <c r="K23" s="66"/>
       <c r="L23" s="1"/>
     </row>
@@ -1996,7 +2017,7 @@
         <f t="shared" si="4"/>
         <v>0.26998238095238103</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="65"/>
       <c r="L24" s="1"/>
     </row>
@@ -2029,7 +2050,7 @@
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.2074820476190477</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="65"/>
       <c r="L25" s="1"/>
     </row>
@@ -2062,21 +2083,44 @@
         <f t="shared" ref="I26" si="8">I25-G26</f>
         <v>8.1878476190476279E-2</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="102">
+        <v>264</v>
+      </c>
       <c r="K26" s="65"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="65"/>
+      <c r="B27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43831</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43857</v>
+      </c>
+      <c r="E27" s="95">
+        <v>216832</v>
+      </c>
+      <c r="F27" s="94">
+        <v>223367</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="3"/>
+        <v>1.0636523809523809E-2</v>
+      </c>
+      <c r="H27" s="98">
+        <f t="shared" ref="H27" si="9">H26-F27</f>
+        <v>1496081</v>
+      </c>
+      <c r="I27" s="78">
+        <f t="shared" ref="I27" si="10">I26-G27</f>
+        <v>7.1241952380952475E-2</v>
+      </c>
+      <c r="J27" s="103">
+        <v>265</v>
+      </c>
       <c r="K27" s="65"/>
       <c r="L27" s="1"/>
     </row>
@@ -2090,7 +2134,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="99"/>
       <c r="I28" s="89"/>
-      <c r="J28" s="65"/>
+      <c r="J28" s="103"/>
       <c r="K28" s="65"/>
       <c r="L28" s="1"/>
     </row>
@@ -2104,7 +2148,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="100"/>
       <c r="I29" s="91"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="104"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2117,25 +2161,25 @@
       <c r="D30" s="19"/>
       <c r="E30" s="53">
         <f>SUM(E19:E29)</f>
-        <v>15701250</v>
+        <v>15918082</v>
       </c>
       <c r="F30" s="52">
         <f>SUM(F19:F29)</f>
-        <v>19280552</v>
+        <v>19503919</v>
       </c>
       <c r="G30" s="23">
         <f>SUM(G19:G29)</f>
-        <v>0.91812152380952372</v>
+        <v>0.92875804761904757</v>
       </c>
       <c r="H30" s="20">
         <f>A19-F30</f>
-        <v>1719448</v>
+        <v>1496081</v>
       </c>
       <c r="I30" s="27">
         <f>1-G30</f>
-        <v>8.1878476190476279E-2</v>
-      </c>
-      <c r="J30" s="67"/>
+        <v>7.1241952380952434E-2</v>
+      </c>
+      <c r="J30" s="105"/>
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
     </row>
@@ -2152,12 +2196,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2166,10 +2210,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="106"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2184,18 +2228,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="104">
+      <c r="A36" s="114">
         <f>A19-F30</f>
-        <v>1719448</v>
-      </c>
-      <c r="B36" s="105"/>
+        <v>1496081</v>
+      </c>
+      <c r="B36" s="115"/>
       <c r="C36" s="71">
         <f>1-G30</f>
-        <v>8.1878476190476279E-2</v>
+        <v>7.1241952380952434E-2</v>
       </c>
       <c r="D36" s="21">
         <f>(C36/0.8)*100</f>
-        <v>10.234809523809535</v>
+        <v>8.9052440476190533</v>
       </c>
       <c r="E36" s="101" t="s">
         <v>43</v>
@@ -2250,8 +2294,8 @@
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="103"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="55"/>
@@ -2345,9 +2389,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="60"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2364,8 +2408,8 @@
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="55"/>
@@ -2376,8 +2420,8 @@
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="55"/>
@@ -2388,8 +2432,8 @@
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2402,23 +2446,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="102"/>
-      <c r="C66" s="103"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2426,6 +2465,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -882,8 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,20 +1018,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1028,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1354,7 +1358,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1374,29 +1378,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1461,7 +1465,7 @@
       <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="70">
         <v>237</v>
       </c>
       <c r="D5" s="43">
@@ -1470,7 +1474,7 @@
       <c r="E5" s="43">
         <v>30</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="43">
         <f>E5-F5</f>
         <v>30</v>
@@ -1479,7 +1483,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
-      <c r="L5" s="68"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="44">
@@ -1489,7 +1493,7 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="82">
         <v>237</v>
       </c>
       <c r="D6" s="9">
@@ -1498,7 +1502,7 @@
       <c r="E6" s="9">
         <v>30</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>30</v>
@@ -1507,7 +1511,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="69"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="44">
@@ -1517,7 +1521,7 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="82">
         <v>237</v>
       </c>
       <c r="D7" s="9">
@@ -1526,7 +1530,7 @@
       <c r="E7" s="9">
         <v>40</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="72">
         <v>2</v>
       </c>
       <c r="G7" s="9">
@@ -1537,7 +1541,7 @@
       <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="69"/>
+      <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="44">
@@ -1547,7 +1551,7 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="82">
         <v>237</v>
       </c>
       <c r="D8" s="9">
@@ -1556,7 +1560,7 @@
       <c r="E8" s="9">
         <v>40</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1565,7 +1569,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="44">
@@ -1575,7 +1579,7 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="9">
@@ -1584,7 +1588,7 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="72">
         <v>30</v>
       </c>
       <c r="G9" s="9">
@@ -1595,17 +1599,17 @@
       <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="82">
         <v>237</v>
       </c>
       <c r="D10" s="9">
@@ -1614,7 +1618,7 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1623,20 +1627,20 @@
       <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="74"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1645,7 +1649,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="69"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
@@ -1653,10 +1657,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="82">
         <v>237</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1665,13 +1669,13 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="9"/>
       <c r="H12" s="51"/>
       <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
@@ -1682,7 +1686,7 @@
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="82">
         <v>237</v>
       </c>
       <c r="D13" s="9">
@@ -1691,7 +1695,7 @@
       <c r="E13" s="9">
         <v>50</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="72">
         <v>14</v>
       </c>
       <c r="G13" s="9">
@@ -1704,7 +1708,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="67"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="44">
@@ -1714,7 +1718,7 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="82">
         <v>237</v>
       </c>
       <c r="D14" s="9">
@@ -1723,7 +1727,7 @@
       <c r="E14" s="9">
         <v>200</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="72">
         <v>75</v>
       </c>
       <c r="G14" s="9">
@@ -1734,17 +1738,17 @@
       <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="69"/>
+      <c r="L14" s="67"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="87">
+      <c r="A15" s="85">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="83">
         <v>237</v>
       </c>
       <c r="D15" s="45">
@@ -1753,21 +1757,21 @@
       <c r="E15" s="45">
         <v>50</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="45">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
-      <c r="L15" s="83"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="88"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1778,7 +1782,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="13"/>
@@ -1788,9 +1792,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="36" t="s">
@@ -1823,67 +1827,67 @@
       <c r="J18" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="70">
+      <c r="A19" s="68">
         <f>E5*700000</f>
         <v>21000000</v>
       </c>
       <c r="B19" s="34"/>
-      <c r="C19" s="77"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92">
+      <c r="E19" s="90"/>
+      <c r="F19" s="90">
         <v>2100000</v>
       </c>
       <c r="G19" s="35">
         <f t="shared" ref="G19:G27" si="3">F19/A$19</f>
         <v>0.1</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="96">
         <f>A19-F19</f>
         <v>18900000</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="76">
         <f>1-G19</f>
         <v>0.9</v>
       </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="44"/>
-      <c r="B20" s="79">
+      <c r="B20" s="77">
         <v>43508</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="77">
         <v>43517</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="77">
         <v>43518</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="91">
         <v>1534720</v>
       </c>
-      <c r="F20" s="93">
+      <c r="F20" s="91">
         <v>1865645</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" si="3"/>
         <v>8.8840238095238097E-2</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="96">
         <f t="shared" ref="H20:I24" si="4">H19-F20</f>
         <v>17034355</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="76">
         <f t="shared" si="4"/>
         <v>0.81115976190476191</v>
       </c>
-      <c r="J20" s="102">
+      <c r="J20" s="100">
         <v>257</v>
       </c>
       <c r="K20" s="1"/>
@@ -1900,27 +1904,27 @@
       <c r="D21" s="10">
         <v>43553</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="92">
         <v>1754368</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="92">
         <v>1947507</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="3"/>
         <v>9.2738428571428569E-2</v>
       </c>
-      <c r="H21" s="98">
+      <c r="H21" s="96">
         <f t="shared" si="4"/>
         <v>15086848</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="76">
         <f t="shared" si="4"/>
         <v>0.71842133333333336</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="14"/>
@@ -1933,26 +1937,26 @@
       <c r="D22" s="10">
         <v>43614</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="93">
         <v>2524928</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="93">
         <v>2687575</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="3"/>
         <v>0.1279797619047619</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="96">
         <f t="shared" si="4"/>
         <v>12399273</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="76">
         <f t="shared" si="4"/>
         <v>0.59044157142857145</v>
       </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="65"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -1966,28 +1970,28 @@
       <c r="D23" s="10">
         <v>43646</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="92">
         <v>3481472</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="92">
         <v>3897964</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="3"/>
         <v>0.18561733333333333</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="96">
         <f t="shared" si="4"/>
         <v>8501309</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="76">
         <f t="shared" si="4"/>
         <v>0.40482423809523815</v>
       </c>
-      <c r="J23" s="102">
+      <c r="J23" s="100">
         <v>262</v>
       </c>
-      <c r="K23" s="66"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1999,26 +2003,26 @@
         <v>43660</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="94">
+      <c r="E24" s="92">
         <v>2646482</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="92">
         <v>2831679</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="3"/>
         <v>0.13484185714285715</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="96">
         <f t="shared" si="4"/>
         <v>5669630</v>
       </c>
-      <c r="I24" s="78">
+      <c r="I24" s="76">
         <f t="shared" si="4"/>
         <v>0.26998238095238103</v>
       </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="65"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -2032,26 +2036,26 @@
       <c r="D25" s="10">
         <v>43725</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="92">
         <v>1249024</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="92">
         <v>1312507</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="3"/>
         <v>6.2500333333333338E-2</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="96">
         <f t="shared" ref="H25" si="5">H24-F25</f>
         <v>4357123</v>
       </c>
-      <c r="I25" s="78">
+      <c r="I25" s="76">
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.2074820476190477</v>
       </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="65"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -2065,28 +2069,28 @@
       <c r="D26" s="10">
         <v>44168</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="92">
         <v>2510256</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="92">
         <v>2637675</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="3"/>
         <v>0.12560357142857143</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="96">
         <f t="shared" ref="H26" si="7">H25-F26</f>
         <v>1719448</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="76">
         <f t="shared" ref="I26" si="8">I25-G26</f>
         <v>8.1878476190476279E-2</v>
       </c>
-      <c r="J26" s="102">
+      <c r="J26" s="100">
         <v>264</v>
       </c>
-      <c r="K26" s="65"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -2100,55 +2104,55 @@
       <c r="D27" s="10">
         <v>43857</v>
       </c>
-      <c r="E27" s="95">
+      <c r="E27" s="93">
         <v>216832</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="92">
         <v>223367</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="3"/>
         <v>1.0636523809523809E-2</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="96">
         <f t="shared" ref="H27" si="9">H26-F27</f>
         <v>1496081</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="76">
         <f t="shared" ref="I27" si="10">I26-G27</f>
         <v>7.1241952380952475E-2</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="101">
         <v>265</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="94"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="65"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="104"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -2159,11 +2163,11 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="53">
+      <c r="E30" s="115">
         <f>SUM(E19:E29)</f>
         <v>15918082</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="116">
         <f>SUM(F19:F29)</f>
         <v>19503919</v>
       </c>
@@ -2179,9 +2183,9 @@
         <f>1-G30</f>
         <v>7.1241952380952434E-2</v>
       </c>
-      <c r="J30" s="105"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2196,12 +2200,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2210,10 +2214,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="116"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2228,12 +2232,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="114">
+      <c r="A36" s="106">
         <f>A19-F30</f>
         <v>1496081</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="71">
+      <c r="B36" s="107"/>
+      <c r="C36" s="69">
         <f>1-G30</f>
         <v>7.1241952380952434E-2</v>
       </c>
@@ -2241,14 +2245,14 @@
         <f>(C36/0.8)*100</f>
         <v>8.9052440476190533</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2286,113 +2290,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="113"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="56"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="56"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="56"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="56"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="56"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="56"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="60"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2400,40 +2404,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="113"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="55"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="55"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2446,18 +2450,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="112"/>
-      <c r="C66" s="113"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2465,11 +2474,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED527AE4-5C00-45A0-9107-9C8AE8EDD270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -175,7 +183,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -753,7 +761,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -969,9 +977,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,9 +1002,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,6 +1018,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1028,26 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1144,6 +1146,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1179,6 +1198,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1354,53 +1390,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1408,7 +1444,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1420,7 +1456,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -1485,7 +1521,7 @@
       <c r="K5" s="42"/>
       <c r="L5" s="66"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <f>A5+1</f>
         <v>2</v>
@@ -1513,7 +1549,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
@@ -1543,7 +1579,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="67"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1571,7 +1607,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="67"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1601,7 +1637,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="67"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1629,7 +1665,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="67"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1652,7 +1688,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1678,7 +1714,7 @@
       <c r="L12" s="67"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1710,7 +1746,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="67"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1740,7 +1776,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="67"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1768,7 +1804,7 @@
       <c r="K15" s="45"/>
       <c r="L15" s="81"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="59"/>
       <c r="C16" s="84"/>
@@ -1780,7 +1816,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="60" t="s">
         <v>10</v>
@@ -1796,7 +1832,7 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
     </row>
-    <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1866,7 @@
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="68">
         <f>E5*700000</f>
         <v>21000000</v>
@@ -1838,15 +1874,15 @@
       <c r="B19" s="34"/>
       <c r="C19" s="75"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90">
+      <c r="E19" s="89"/>
+      <c r="F19" s="89">
         <v>2100000</v>
       </c>
       <c r="G19" s="35">
-        <f t="shared" ref="G19:G27" si="3">F19/A$19</f>
+        <f t="shared" ref="G19:G28" si="3">F19/A$19</f>
         <v>0.1</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="95">
         <f>A19-F19</f>
         <v>18900000</v>
       </c>
@@ -1854,11 +1890,11 @@
         <f>1-G19</f>
         <v>0.9</v>
       </c>
-      <c r="J19" s="100"/>
+      <c r="J19" s="98"/>
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="77">
         <v>43508</v>
@@ -1869,17 +1905,17 @@
       <c r="D20" s="77">
         <v>43518</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="90">
         <v>1534720</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="90">
         <v>1865645</v>
       </c>
       <c r="G20" s="35">
         <f t="shared" si="3"/>
         <v>8.8840238095238097E-2</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="95">
         <f t="shared" ref="H20:I24" si="4">H19-F20</f>
         <v>17034355</v>
       </c>
@@ -1887,13 +1923,13 @@
         <f t="shared" si="4"/>
         <v>0.81115976190476191</v>
       </c>
-      <c r="J20" s="100">
+      <c r="J20" s="98">
         <v>257</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="10">
         <v>43537</v>
@@ -1904,17 +1940,17 @@
       <c r="D21" s="10">
         <v>43553</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="91">
         <v>1754368</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="91">
         <v>1947507</v>
       </c>
       <c r="G21" s="35">
         <f t="shared" si="3"/>
         <v>9.2738428571428569E-2</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="95">
         <f t="shared" si="4"/>
         <v>15086848</v>
       </c>
@@ -1922,11 +1958,11 @@
         <f t="shared" si="4"/>
         <v>0.71842133333333336</v>
       </c>
-      <c r="J21" s="100"/>
+      <c r="J21" s="98"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43600</v>
@@ -1937,17 +1973,17 @@
       <c r="D22" s="10">
         <v>43614</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="92">
         <v>2524928</v>
       </c>
-      <c r="F22" s="93">
+      <c r="F22" s="92">
         <v>2687575</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="3"/>
         <v>0.1279797619047619</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="95">
         <f t="shared" si="4"/>
         <v>12399273</v>
       </c>
@@ -1955,11 +1991,11 @@
         <f t="shared" si="4"/>
         <v>0.59044157142857145</v>
       </c>
-      <c r="J22" s="100"/>
+      <c r="J22" s="98"/>
       <c r="K22" s="63"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43626</v>
@@ -1970,17 +2006,17 @@
       <c r="D23" s="10">
         <v>43646</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="91">
         <v>3481472</v>
       </c>
-      <c r="F23" s="92">
+      <c r="F23" s="91">
         <v>3897964</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="3"/>
         <v>0.18561733333333333</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H23" s="95">
         <f t="shared" si="4"/>
         <v>8501309</v>
       </c>
@@ -1988,13 +2024,13 @@
         <f t="shared" si="4"/>
         <v>0.40482423809523815</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="98">
         <v>262</v>
       </c>
       <c r="K23" s="64"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10">
         <v>43647</v>
@@ -2003,17 +2039,17 @@
         <v>43660</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="92">
+      <c r="E24" s="91">
         <v>2646482</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="91">
         <v>2831679</v>
       </c>
       <c r="G24" s="24">
         <f t="shared" si="3"/>
         <v>0.13484185714285715</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="95">
         <f t="shared" si="4"/>
         <v>5669630</v>
       </c>
@@ -2021,11 +2057,11 @@
         <f t="shared" si="4"/>
         <v>0.26998238095238103</v>
       </c>
-      <c r="J24" s="100"/>
+      <c r="J24" s="98"/>
       <c r="K24" s="63"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10">
         <v>43714</v>
@@ -2036,17 +2072,17 @@
       <c r="D25" s="10">
         <v>43725</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="91">
         <v>1249024</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="91">
         <v>1312507</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="3"/>
         <v>6.2500333333333338E-2</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H25" s="95">
         <f t="shared" ref="H25" si="5">H24-F25</f>
         <v>4357123</v>
       </c>
@@ -2054,11 +2090,11 @@
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.2074820476190477</v>
       </c>
-      <c r="J25" s="100"/>
+      <c r="J25" s="98"/>
       <c r="K25" s="63"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10">
         <v>43819</v>
@@ -2069,17 +2105,17 @@
       <c r="D26" s="10">
         <v>44168</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="91">
         <v>2510256</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="91">
         <v>2637675</v>
       </c>
       <c r="G26" s="24">
         <f t="shared" si="3"/>
         <v>0.12560357142857143</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="95">
         <f t="shared" ref="H26" si="7">H25-F26</f>
         <v>1719448</v>
       </c>
@@ -2087,13 +2123,13 @@
         <f t="shared" ref="I26" si="8">I25-G26</f>
         <v>8.1878476190476279E-2</v>
       </c>
-      <c r="J26" s="100">
+      <c r="J26" s="98">
         <v>264</v>
       </c>
       <c r="K26" s="63"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10" t="s">
         <v>44</v>
@@ -2104,17 +2140,17 @@
       <c r="D27" s="10">
         <v>43857</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="92">
         <v>216832</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="91">
         <v>223367</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="3"/>
         <v>1.0636523809523809E-2</v>
       </c>
-      <c r="H27" s="96">
+      <c r="H27" s="95">
         <f t="shared" ref="H27" si="9">H26-F27</f>
         <v>1496081</v>
       </c>
@@ -2122,72 +2158,93 @@
         <f t="shared" ref="I27" si="10">I26-G27</f>
         <v>7.1241952380952475E-2</v>
       </c>
-      <c r="J27" s="101">
+      <c r="J27" s="99">
         <v>265</v>
       </c>
       <c r="K27" s="63"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="101"/>
+      <c r="B28" s="10">
+        <v>43929</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43937</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43938</v>
+      </c>
+      <c r="E28" s="92">
+        <v>1839288</v>
+      </c>
+      <c r="F28" s="91">
+        <v>1969574</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="3"/>
+        <v>9.3789238095238092E-2</v>
+      </c>
+      <c r="H28" s="95">
+        <f t="shared" ref="H28" si="11">H27-F28</f>
+        <v>-473493</v>
+      </c>
+      <c r="I28" s="76">
+        <f t="shared" ref="I28" si="12">I27-G28</f>
+        <v>-2.2547285714285617E-2</v>
+      </c>
+      <c r="J28" s="99">
+        <v>265</v>
+      </c>
       <c r="K28" s="63"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="102"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="115">
+      <c r="E30" s="102">
         <f>SUM(E19:E29)</f>
-        <v>15918082</v>
-      </c>
-      <c r="F30" s="116">
+        <v>17757370</v>
+      </c>
+      <c r="F30" s="103">
         <f>SUM(F19:F29)</f>
-        <v>19503919</v>
+        <v>21473493</v>
       </c>
       <c r="G30" s="23">
         <f>SUM(G19:G29)</f>
-        <v>0.92875804761904757</v>
+        <v>1.0225472857142857</v>
       </c>
       <c r="H30" s="20">
         <f>A19-F30</f>
-        <v>1496081</v>
+        <v>-473493</v>
       </c>
       <c r="I30" s="27">
         <f>1-G30</f>
-        <v>7.1241952380952434E-2</v>
-      </c>
-      <c r="J30" s="103"/>
+        <v>-2.2547285714285659E-2</v>
+      </c>
+      <c r="J30" s="101"/>
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2199,13 +2256,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="111" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2213,11 +2270,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="108" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2231,30 +2288,30 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="106">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="112">
         <f>A19-F30</f>
-        <v>1496081</v>
-      </c>
-      <c r="B36" s="107"/>
+        <v>-473493</v>
+      </c>
+      <c r="B36" s="113"/>
       <c r="C36" s="69">
         <f>1-G30</f>
-        <v>7.1241952380952434E-2</v>
+        <v>-2.2547285714285659E-2</v>
       </c>
       <c r="D36" s="21">
         <f>(C36/0.8)*100</f>
-        <v>8.9052440476190533</v>
-      </c>
-      <c r="E36" s="99" t="s">
+        <v>-2.8184107142857071</v>
+      </c>
+      <c r="E36" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2262,7 +2319,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2277,7 +2334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2289,7 +2346,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
@@ -2298,10 +2355,10 @@
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="105"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="110"/>
+      <c r="J40" s="111"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
@@ -2311,7 +2368,7 @@
       <c r="G41" s="55"/>
       <c r="H41" s="54"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="53"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
@@ -2321,7 +2378,7 @@
       <c r="G42" s="55"/>
       <c r="H42" s="54"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
@@ -2331,7 +2388,7 @@
       <c r="G43" s="55"/>
       <c r="H43" s="54"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
@@ -2341,7 +2398,7 @@
       <c r="G44" s="55"/>
       <c r="H44" s="54"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
@@ -2351,7 +2408,7 @@
       <c r="G45" s="55"/>
       <c r="H45" s="54"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
       <c r="B46" s="54"/>
       <c r="C46" s="56"/>
@@ -2361,7 +2418,7 @@
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="53"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
@@ -2371,7 +2428,7 @@
       <c r="G47" s="55"/>
       <c r="H47" s="54"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="53"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -2381,7 +2438,7 @@
       <c r="G48" s="55"/>
       <c r="H48" s="54"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="53"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
@@ -2391,11 +2448,11 @@
       <c r="G49" s="55"/>
       <c r="H49" s="54"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="113"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="58"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2403,7 +2460,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -2412,10 +2469,10 @@
       <c r="F51" s="52"/>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="105"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2424,10 +2481,10 @@
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2436,10 +2493,10 @@
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2449,24 +2506,19 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="104"/>
-      <c r="C66" s="105"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="110"/>
+      <c r="C66" s="111"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2474,6 +2526,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2487,12 +2544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2501,24 +2558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/III-2-82-450-1 (банка 0,45 twist).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED527AE4-5C00-45A0-9107-9C8AE8EDD270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F347C54D-09D2-4965-9462-BD7A393D719D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1026,20 +1026,6 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1035,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1414,29 +1414,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2257,12 +2257,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2271,10 +2271,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="114"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2289,11 +2289,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="112">
+      <c r="A36" s="106">
         <f>A19-F30</f>
         <v>-473493</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="69">
         <f>1-G30</f>
         <v>-2.2547285714285659E-2</v>
@@ -2355,8 +2355,8 @@
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="111"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="105"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
@@ -2450,9 +2450,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
       <c r="E50" s="58"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2469,8 +2469,8 @@
       <c r="F51" s="52"/>
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
@@ -2481,8 +2481,8 @@
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="54"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
@@ -2493,8 +2493,8 @@
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -2507,18 +2507,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="110"/>
-      <c r="C66" s="111"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="105"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2526,11 +2531,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
